--- a/Frequencia/MAF105_T1.xlsx
+++ b/Frequencia/MAF105_T1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="117">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -852,7 +852,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1040,7 +1040,9 @@
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1078,7 +1080,7 @@
       <c r="AM2" s="9"/>
       <c r="AN2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
@@ -1211,7 +1213,9 @@
       <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1249,7 +1253,7 @@
       <c r="AM5" s="9"/>
       <c r="AN5" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="2"/>
@@ -1486,7 +1490,9 @@
       <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1528,7 +1534,7 @@
       </c>
       <c r="AO10" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
@@ -1706,7 +1712,9 @@
       <c r="C14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -1744,7 +1752,7 @@
       <c r="AM14" s="9"/>
       <c r="AN14" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO14" s="9">
         <f t="shared" si="2"/>
@@ -1981,7 +1989,9 @@
       <c r="C19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -2019,7 +2029,7 @@
       <c r="AM19" s="9"/>
       <c r="AN19" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO19" s="9">
         <f t="shared" si="2"/>

--- a/Frequencia/MAF105_T1.xlsx
+++ b/Frequencia/MAF105_T1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="117">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -851,13 +851,13 @@
   <dimension ref="A1:AR52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D19" sqref="D19"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="84.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77" style="10" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="39" width="20.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1040,9 +1040,7 @@
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1080,7 +1078,7 @@
       <c r="AM2" s="9"/>
       <c r="AN2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
@@ -1213,9 +1211,7 @@
       <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1253,7 +1249,7 @@
       <c r="AM5" s="9"/>
       <c r="AN5" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="2"/>
@@ -1380,8 +1376,12 @@
       <c r="C8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -1418,7 +1418,7 @@
       <c r="AM8" s="9"/>
       <c r="AN8" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO8" s="9">
         <f t="shared" si="2"/>
@@ -1490,9 +1490,7 @@
       <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1534,7 +1532,7 @@
       </c>
       <c r="AO10" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
@@ -1712,9 +1710,7 @@
       <c r="C14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -1752,7 +1748,7 @@
       <c r="AM14" s="9"/>
       <c r="AN14" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="9">
         <f t="shared" si="2"/>
@@ -1989,9 +1985,7 @@
       <c r="C19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -2029,7 +2023,7 @@
       <c r="AM19" s="9"/>
       <c r="AN19" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="9">
         <f t="shared" si="2"/>

--- a/Frequencia/MAF105_T1.xlsx
+++ b/Frequencia/MAF105_T1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="117">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -850,9 +850,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+      <selection pane="topRight" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1040,8 +1040,12 @@
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -1078,7 +1082,7 @@
       <c r="AM2" s="9"/>
       <c r="AN2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
@@ -1101,8 +1105,12 @@
       <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1143,7 +1151,7 @@
       </c>
       <c r="AO3" s="9">
         <f t="shared" ref="AO3:AO52" si="2">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
@@ -1156,8 +1164,12 @@
       <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -1194,11 +1206,11 @@
       <c r="AM4" s="9"/>
       <c r="AN4" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO4" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
@@ -1211,8 +1223,12 @@
       <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -1249,7 +1265,7 @@
       <c r="AM5" s="9"/>
       <c r="AN5" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="2"/>
@@ -1266,8 +1282,12 @@
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -1304,7 +1324,7 @@
       <c r="AM6" s="9"/>
       <c r="AN6" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO6" s="9">
         <f t="shared" si="2"/>
@@ -1321,8 +1341,12 @@
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -1359,7 +1383,7 @@
       <c r="AM7" s="9"/>
       <c r="AN7" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO7" s="9">
         <f t="shared" si="2"/>
@@ -1435,8 +1459,12 @@
       <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1473,7 +1501,7 @@
       <c r="AM9" s="9"/>
       <c r="AN9" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO9" s="9">
         <f t="shared" si="2"/>
@@ -1490,8 +1518,12 @@
       <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -1528,11 +1560,11 @@
       <c r="AM10" s="9"/>
       <c r="AN10" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO10" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
@@ -1545,8 +1577,12 @@
       <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -1583,7 +1619,7 @@
       <c r="AM11" s="9"/>
       <c r="AN11" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="2"/>
@@ -1600,8 +1636,12 @@
       <c r="C12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -1638,11 +1678,11 @@
       <c r="AM12" s="9"/>
       <c r="AN12" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.2">
@@ -1655,8 +1695,12 @@
       <c r="C13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -1693,7 +1737,7 @@
       <c r="AM13" s="9"/>
       <c r="AN13" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO13" s="9">
         <f t="shared" si="2"/>
@@ -1710,8 +1754,12 @@
       <c r="C14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -1748,11 +1796,11 @@
       <c r="AM14" s="9"/>
       <c r="AN14" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO14" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.2">
@@ -1765,8 +1813,12 @@
       <c r="C15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1803,7 +1855,7 @@
       <c r="AM15" s="9"/>
       <c r="AN15" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO15" s="9">
         <f t="shared" si="2"/>
@@ -1820,8 +1872,12 @@
       <c r="C16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -1858,7 +1914,7 @@
       <c r="AM16" s="9"/>
       <c r="AN16" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO16" s="9">
         <f t="shared" si="2"/>
@@ -1875,8 +1931,12 @@
       <c r="C17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -1913,11 +1973,11 @@
       <c r="AM17" s="9"/>
       <c r="AN17" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO17" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.2">
@@ -1930,8 +1990,12 @@
       <c r="C18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1968,7 +2032,7 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO18" s="9">
         <f t="shared" si="2"/>
@@ -1985,8 +2049,12 @@
       <c r="C19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -2023,11 +2091,11 @@
       <c r="AM19" s="9"/>
       <c r="AN19" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO19" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.2">
@@ -2040,8 +2108,12 @@
       <c r="C20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -2078,11 +2150,11 @@
       <c r="AM20" s="9"/>
       <c r="AN20" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO20" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
@@ -2095,8 +2167,12 @@
       <c r="C21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -2137,7 +2213,7 @@
       </c>
       <c r="AO21" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
@@ -2150,8 +2226,12 @@
       <c r="C22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -2188,7 +2268,7 @@
       <c r="AM22" s="9"/>
       <c r="AN22" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO22" s="9">
         <f t="shared" si="2"/>
@@ -2205,8 +2285,12 @@
       <c r="C23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -2243,7 +2327,7 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO23" s="9">
         <f t="shared" si="2"/>
@@ -2260,8 +2344,12 @@
       <c r="C24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -2298,7 +2386,7 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO24" s="9">
         <f t="shared" si="2"/>
@@ -2315,8 +2403,12 @@
       <c r="C25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -2353,11 +2445,11 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO25" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.2">
@@ -2370,8 +2462,12 @@
       <c r="C26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -2408,7 +2504,7 @@
       <c r="AM26" s="9"/>
       <c r="AN26" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO26" s="9">
         <f t="shared" si="2"/>
@@ -2425,8 +2521,12 @@
       <c r="C27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -2463,7 +2563,7 @@
       <c r="AM27" s="9"/>
       <c r="AN27" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO27" s="9">
         <f t="shared" si="2"/>
@@ -2480,8 +2580,12 @@
       <c r="C28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -2518,7 +2622,7 @@
       <c r="AM28" s="9"/>
       <c r="AN28" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO28" s="9">
         <f t="shared" si="2"/>
@@ -2535,8 +2639,12 @@
       <c r="C29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -2573,11 +2681,11 @@
       <c r="AM29" s="9"/>
       <c r="AN29" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO29" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
@@ -2590,8 +2698,12 @@
       <c r="C30" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -2628,7 +2740,7 @@
       <c r="AM30" s="9"/>
       <c r="AN30" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO30" s="9">
         <f t="shared" si="2"/>
@@ -2645,8 +2757,12 @@
       <c r="C31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -2683,7 +2799,7 @@
       <c r="AM31" s="9"/>
       <c r="AN31" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO31" s="9">
         <f t="shared" si="2"/>
@@ -2700,8 +2816,12 @@
       <c r="C32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -2738,7 +2858,7 @@
       <c r="AM32" s="9"/>
       <c r="AN32" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO32" s="9">
         <f t="shared" si="2"/>
@@ -2755,8 +2875,12 @@
       <c r="C33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -2793,7 +2917,7 @@
       <c r="AM33" s="9"/>
       <c r="AN33" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO33" s="9">
         <f t="shared" si="2"/>
@@ -2810,8 +2934,12 @@
       <c r="C34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -2848,11 +2976,11 @@
       <c r="AM34" s="9"/>
       <c r="AN34" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO34" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.2">
@@ -2865,8 +2993,12 @@
       <c r="C35" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -2903,7 +3035,7 @@
       <c r="AM35" s="9"/>
       <c r="AN35" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO35" s="9">
         <f t="shared" si="2"/>
@@ -2920,8 +3052,12 @@
       <c r="C36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -2958,11 +3094,11 @@
       <c r="AM36" s="9"/>
       <c r="AN36" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO36" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.2">
@@ -2975,8 +3111,12 @@
       <c r="C37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -3013,11 +3153,11 @@
       <c r="AM37" s="9"/>
       <c r="AN37" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO37" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.2">
@@ -3030,8 +3170,12 @@
       <c r="C38" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -3068,7 +3212,7 @@
       <c r="AM38" s="9"/>
       <c r="AN38" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO38" s="9">
         <f t="shared" si="2"/>
@@ -3085,8 +3229,12 @@
       <c r="C39" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -3123,7 +3271,7 @@
       <c r="AM39" s="9"/>
       <c r="AN39" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO39" s="9">
         <f t="shared" si="2"/>
@@ -3140,8 +3288,12 @@
       <c r="C40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -3178,7 +3330,7 @@
       <c r="AM40" s="9"/>
       <c r="AN40" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO40" s="9">
         <f t="shared" si="2"/>
@@ -3195,8 +3347,12 @@
       <c r="C41" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="D41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -3233,7 +3389,7 @@
       <c r="AM41" s="9"/>
       <c r="AN41" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO41" s="9">
         <f t="shared" si="2"/>
@@ -3250,8 +3406,12 @@
       <c r="C42" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -3288,7 +3448,7 @@
       <c r="AM42" s="9"/>
       <c r="AN42" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO42" s="9">
         <f t="shared" si="2"/>
@@ -3305,8 +3465,12 @@
       <c r="C43" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -3343,7 +3507,7 @@
       <c r="AM43" s="9"/>
       <c r="AN43" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO43" s="9">
         <f t="shared" si="2"/>
@@ -3360,8 +3524,12 @@
       <c r="C44" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -3398,11 +3566,11 @@
       <c r="AM44" s="9"/>
       <c r="AN44" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO44" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.2">
@@ -3415,8 +3583,12 @@
       <c r="C45" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="D45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -3453,7 +3625,7 @@
       <c r="AM45" s="9"/>
       <c r="AN45" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO45" s="9">
         <f t="shared" si="2"/>
@@ -3470,8 +3642,12 @@
       <c r="C46" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
+      <c r="D46" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -3508,7 +3684,7 @@
       <c r="AM46" s="9"/>
       <c r="AN46" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO46" s="9">
         <f t="shared" si="2"/>
@@ -3525,8 +3701,12 @@
       <c r="C47" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="D47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -3563,11 +3743,11 @@
       <c r="AM47" s="9"/>
       <c r="AN47" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO47" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.2">
@@ -3580,8 +3760,12 @@
       <c r="C48" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+      <c r="D48" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -3618,7 +3802,7 @@
       <c r="AM48" s="9"/>
       <c r="AN48" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO48" s="9">
         <f t="shared" si="2"/>
@@ -3635,8 +3819,12 @@
       <c r="C49" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="D49" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -3673,7 +3861,7 @@
       <c r="AM49" s="9"/>
       <c r="AN49" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO49" s="9">
         <f t="shared" si="2"/>
@@ -3690,8 +3878,12 @@
       <c r="C50" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="D50" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -3732,7 +3924,7 @@
       </c>
       <c r="AO50" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.2">
@@ -3745,8 +3937,12 @@
       <c r="C51" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
+      <c r="D51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -3783,7 +3979,7 @@
       <c r="AM51" s="9"/>
       <c r="AN51" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO51" s="9">
         <f t="shared" si="2"/>
@@ -3800,8 +3996,12 @@
       <c r="C52" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
+      <c r="D52" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -3838,7 +4038,7 @@
       <c r="AM52" s="9"/>
       <c r="AN52" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO52" s="9">
         <f t="shared" si="2"/>

--- a/Frequencia/MAF105_T1.xlsx
+++ b/Frequencia/MAF105_T1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -850,9 +850,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D53" sqref="D53"/>
+      <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1406,7 +1406,9 @@
       <c r="E8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1442,7 +1444,7 @@
       <c r="AM8" s="9"/>
       <c r="AN8" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO8" s="9">
         <f t="shared" si="2"/>

--- a/Frequencia/MAF105_T1.xlsx
+++ b/Frequencia/MAF105_T1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="119">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -378,6 +378,12 @@
   </si>
   <si>
     <t>3370     </t>
+  </si>
+  <si>
+    <t>ANAFLAVIA VIEIRA SALES</t>
+  </si>
+  <si>
+    <t>DOUGLAS SANTIAGO RODRIGUES</t>
   </si>
 </sst>
 </file>
@@ -848,11 +854,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR52"/>
+  <dimension ref="A1:AR54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1046,7 +1052,9 @@
       <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -1086,7 +1094,7 @@
       </c>
       <c r="AO2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>9</v>
@@ -1111,7 +1119,9 @@
       <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -1147,7 +1157,7 @@
       <c r="AM3" s="9"/>
       <c r="AN3" s="9">
         <f t="shared" ref="AN3:AN52" si="1">2*COUNTIF(D3:AM3,"="&amp;$AQ$2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO3" s="9">
         <f t="shared" ref="AO3:AO52" si="2">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
@@ -1170,7 +1180,9 @@
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -1206,7 +1218,7 @@
       <c r="AM4" s="9"/>
       <c r="AN4" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO4" s="9">
         <f t="shared" si="2"/>
@@ -1229,7 +1241,9 @@
       <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -1265,7 +1279,7 @@
       <c r="AM5" s="9"/>
       <c r="AN5" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="2"/>
@@ -1288,7 +1302,9 @@
       <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -1324,7 +1340,7 @@
       <c r="AM6" s="9"/>
       <c r="AN6" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO6" s="9">
         <f t="shared" si="2"/>
@@ -1347,7 +1363,9 @@
       <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1387,7 +1405,7 @@
       </c>
       <c r="AO7" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
@@ -1467,7 +1485,9 @@
       <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -1507,7 +1527,7 @@
       </c>
       <c r="AO9" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
@@ -1526,7 +1546,9 @@
       <c r="E10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -1566,7 +1588,7 @@
       </c>
       <c r="AO10" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
@@ -1585,7 +1607,9 @@
       <c r="E11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1625,7 +1649,7 @@
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
@@ -1644,7 +1668,9 @@
       <c r="E12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1680,7 +1706,7 @@
       <c r="AM12" s="9"/>
       <c r="AN12" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="2"/>
@@ -1703,7 +1729,9 @@
       <c r="E13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1739,7 +1767,7 @@
       <c r="AM13" s="9"/>
       <c r="AN13" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO13" s="9">
         <f t="shared" si="2"/>
@@ -1762,7 +1790,9 @@
       <c r="E14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1798,7 +1828,7 @@
       <c r="AM14" s="9"/>
       <c r="AN14" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO14" s="9">
         <f t="shared" si="2"/>
@@ -1821,7 +1851,9 @@
       <c r="E15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -1857,7 +1889,7 @@
       <c r="AM15" s="9"/>
       <c r="AN15" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO15" s="9">
         <f t="shared" si="2"/>
@@ -1880,7 +1912,9 @@
       <c r="E16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1916,7 +1950,7 @@
       <c r="AM16" s="9"/>
       <c r="AN16" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO16" s="9">
         <f t="shared" si="2"/>
@@ -1939,7 +1973,9 @@
       <c r="E17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1979,7 +2015,7 @@
       </c>
       <c r="AO17" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.2">
@@ -1998,7 +2034,9 @@
       <c r="E18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -2034,7 +2072,7 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO18" s="9">
         <f t="shared" si="2"/>
@@ -2057,7 +2095,9 @@
       <c r="E19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -2093,7 +2133,7 @@
       <c r="AM19" s="9"/>
       <c r="AN19" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO19" s="9">
         <f t="shared" si="2"/>
@@ -2116,7 +2156,9 @@
       <c r="E20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -2152,7 +2194,7 @@
       <c r="AM20" s="9"/>
       <c r="AN20" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO20" s="9">
         <f t="shared" si="2"/>
@@ -2175,7 +2217,9 @@
       <c r="E21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -2215,7 +2259,7 @@
       </c>
       <c r="AO21" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
@@ -2234,7 +2278,9 @@
       <c r="E22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -2270,7 +2316,7 @@
       <c r="AM22" s="9"/>
       <c r="AN22" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO22" s="9">
         <f t="shared" si="2"/>
@@ -2293,7 +2339,9 @@
       <c r="E23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -2329,7 +2377,7 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO23" s="9">
         <f t="shared" si="2"/>
@@ -2352,7 +2400,9 @@
       <c r="E24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -2388,7 +2438,7 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO24" s="9">
         <f t="shared" si="2"/>
@@ -2411,7 +2461,9 @@
       <c r="E25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -2447,7 +2499,7 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO25" s="9">
         <f t="shared" si="2"/>
@@ -2470,7 +2522,9 @@
       <c r="E26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -2510,7 +2564,7 @@
       </c>
       <c r="AO26" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.2">
@@ -2529,7 +2583,9 @@
       <c r="E27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -2565,7 +2621,7 @@
       <c r="AM27" s="9"/>
       <c r="AN27" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO27" s="9">
         <f t="shared" si="2"/>
@@ -2588,7 +2644,9 @@
       <c r="E28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -2624,7 +2682,7 @@
       <c r="AM28" s="9"/>
       <c r="AN28" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO28" s="9">
         <f t="shared" si="2"/>
@@ -2647,7 +2705,9 @@
       <c r="E29" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -2687,7 +2747,7 @@
       </c>
       <c r="AO29" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
@@ -2706,7 +2766,9 @@
       <c r="E30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -2742,7 +2804,7 @@
       <c r="AM30" s="9"/>
       <c r="AN30" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO30" s="9">
         <f t="shared" si="2"/>
@@ -2765,7 +2827,9 @@
       <c r="E31" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -2801,7 +2865,7 @@
       <c r="AM31" s="9"/>
       <c r="AN31" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO31" s="9">
         <f t="shared" si="2"/>
@@ -2824,7 +2888,9 @@
       <c r="E32" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -2860,7 +2926,7 @@
       <c r="AM32" s="9"/>
       <c r="AN32" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO32" s="9">
         <f t="shared" si="2"/>
@@ -2883,7 +2949,9 @@
       <c r="E33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -2919,7 +2987,7 @@
       <c r="AM33" s="9"/>
       <c r="AN33" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO33" s="9">
         <f t="shared" si="2"/>
@@ -2942,7 +3010,9 @@
       <c r="E34" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -2978,7 +3048,7 @@
       <c r="AM34" s="9"/>
       <c r="AN34" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO34" s="9">
         <f t="shared" si="2"/>
@@ -3001,7 +3071,9 @@
       <c r="E35" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -3037,7 +3109,7 @@
       <c r="AM35" s="9"/>
       <c r="AN35" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO35" s="9">
         <f t="shared" si="2"/>
@@ -3060,7 +3132,9 @@
       <c r="E36" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -3096,7 +3170,7 @@
       <c r="AM36" s="9"/>
       <c r="AN36" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO36" s="9">
         <f t="shared" si="2"/>
@@ -3119,7 +3193,9 @@
       <c r="E37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
@@ -3155,7 +3231,7 @@
       <c r="AM37" s="9"/>
       <c r="AN37" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO37" s="9">
         <f t="shared" si="2"/>
@@ -3178,7 +3254,9 @@
       <c r="E38" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -3218,7 +3296,7 @@
       </c>
       <c r="AO38" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.2">
@@ -3237,7 +3315,9 @@
       <c r="E39" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
@@ -3273,7 +3353,7 @@
       <c r="AM39" s="9"/>
       <c r="AN39" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO39" s="9">
         <f t="shared" si="2"/>
@@ -3296,7 +3376,9 @@
       <c r="E40" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -3336,7 +3418,7 @@
       </c>
       <c r="AO40" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.2">
@@ -3355,7 +3437,9 @@
       <c r="E41" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -3391,7 +3475,7 @@
       <c r="AM41" s="9"/>
       <c r="AN41" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO41" s="9">
         <f t="shared" si="2"/>
@@ -3414,7 +3498,9 @@
       <c r="E42" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -3450,7 +3536,7 @@
       <c r="AM42" s="9"/>
       <c r="AN42" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO42" s="9">
         <f t="shared" si="2"/>
@@ -3473,7 +3559,9 @@
       <c r="E43" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
@@ -3509,7 +3597,7 @@
       <c r="AM43" s="9"/>
       <c r="AN43" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO43" s="9">
         <f t="shared" si="2"/>
@@ -3532,7 +3620,9 @@
       <c r="E44" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -3568,7 +3658,7 @@
       <c r="AM44" s="9"/>
       <c r="AN44" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO44" s="9">
         <f t="shared" si="2"/>
@@ -3591,7 +3681,9 @@
       <c r="E45" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -3627,7 +3719,7 @@
       <c r="AM45" s="9"/>
       <c r="AN45" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO45" s="9">
         <f t="shared" si="2"/>
@@ -3650,7 +3742,9 @@
       <c r="E46" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -3686,7 +3780,7 @@
       <c r="AM46" s="9"/>
       <c r="AN46" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO46" s="9">
         <f t="shared" si="2"/>
@@ -3709,7 +3803,9 @@
       <c r="E47" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
@@ -3749,7 +3845,7 @@
       </c>
       <c r="AO47" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.2">
@@ -3768,7 +3864,9 @@
       <c r="E48" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -3804,7 +3902,7 @@
       <c r="AM48" s="9"/>
       <c r="AN48" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO48" s="9">
         <f t="shared" si="2"/>
@@ -3827,7 +3925,9 @@
       <c r="E49" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
@@ -3863,7 +3963,7 @@
       <c r="AM49" s="9"/>
       <c r="AN49" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO49" s="9">
         <f t="shared" si="2"/>
@@ -3886,7 +3986,9 @@
       <c r="E50" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -3926,7 +4028,7 @@
       </c>
       <c r="AO50" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.2">
@@ -3945,7 +4047,9 @@
       <c r="E51" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
@@ -3981,7 +4085,7 @@
       <c r="AM51" s="9"/>
       <c r="AN51" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO51" s="9">
         <f t="shared" si="2"/>
@@ -4004,7 +4108,9 @@
       <c r="E52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="9"/>
+      <c r="F52" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
@@ -4040,11 +4146,33 @@
       <c r="AM52" s="9"/>
       <c r="AN52" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO52" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A53" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="10">
+        <v>2004</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A54" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="10">
+        <v>3056</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Frequencia/MAF105_T1.xlsx
+++ b/Frequencia/MAF105_T1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="119">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -856,9 +856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F55" sqref="F55"/>
+      <selection pane="topRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1427,7 +1427,9 @@
       <c r="F8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1462,7 +1464,7 @@
       <c r="AM8" s="9"/>
       <c r="AN8" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO8" s="9">
         <f t="shared" si="2"/>

--- a/Frequencia/MAF105_T1.xlsx
+++ b/Frequencia/MAF105_T1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="119">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -856,9 +856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G8" sqref="G8"/>
+      <selection pane="topRight" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1055,7 +1055,9 @@
       <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -1094,7 +1096,7 @@
       </c>
       <c r="AO2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>9</v>
@@ -1122,7 +1124,9 @@
       <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -1157,7 +1161,7 @@
       <c r="AM3" s="9"/>
       <c r="AN3" s="9">
         <f t="shared" ref="AN3:AN52" si="1">2*COUNTIF(D3:AM3,"="&amp;$AQ$2)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO3" s="9">
         <f t="shared" ref="AO3:AO52" si="2">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
@@ -1183,7 +1187,9 @@
       <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -1218,7 +1224,7 @@
       <c r="AM4" s="9"/>
       <c r="AN4" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO4" s="9">
         <f t="shared" si="2"/>
@@ -1244,7 +1250,9 @@
       <c r="F5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -1283,7 +1291,7 @@
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
@@ -1305,7 +1313,9 @@
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1344,7 +1354,7 @@
       </c>
       <c r="AO6" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.2">
@@ -1366,7 +1376,9 @@
       <c r="F7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1401,7 +1413,7 @@
       <c r="AM7" s="9"/>
       <c r="AN7" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO7" s="9">
         <f t="shared" si="2"/>
@@ -1428,7 +1440,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1464,11 +1476,11 @@
       <c r="AM8" s="9"/>
       <c r="AN8" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO8" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
@@ -1490,7 +1502,9 @@
       <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1529,7 +1543,7 @@
       </c>
       <c r="AO9" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
@@ -1551,7 +1565,9 @@
       <c r="F10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1590,7 +1606,7 @@
       </c>
       <c r="AO10" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
@@ -1612,7 +1628,9 @@
       <c r="F11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1651,7 +1669,7 @@
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
@@ -1673,7 +1691,9 @@
       <c r="F12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1708,7 +1728,7 @@
       <c r="AM12" s="9"/>
       <c r="AN12" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="2"/>
@@ -1734,7 +1754,9 @@
       <c r="F13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1769,7 +1791,7 @@
       <c r="AM13" s="9"/>
       <c r="AN13" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO13" s="9">
         <f t="shared" si="2"/>
@@ -1795,7 +1817,9 @@
       <c r="F14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1830,7 +1854,7 @@
       <c r="AM14" s="9"/>
       <c r="AN14" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO14" s="9">
         <f t="shared" si="2"/>
@@ -1856,7 +1880,9 @@
       <c r="F15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1891,7 +1917,7 @@
       <c r="AM15" s="9"/>
       <c r="AN15" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO15" s="9">
         <f t="shared" si="2"/>
@@ -1917,7 +1943,9 @@
       <c r="F16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1952,7 +1980,7 @@
       <c r="AM16" s="9"/>
       <c r="AN16" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO16" s="9">
         <f t="shared" si="2"/>
@@ -1978,7 +2006,9 @@
       <c r="F17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2017,7 +2047,7 @@
       </c>
       <c r="AO17" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.2">
@@ -2039,7 +2069,9 @@
       <c r="F18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2074,7 +2106,7 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO18" s="9">
         <f t="shared" si="2"/>
@@ -2100,7 +2132,9 @@
       <c r="F19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2135,7 +2169,7 @@
       <c r="AM19" s="9"/>
       <c r="AN19" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO19" s="9">
         <f t="shared" si="2"/>
@@ -2161,7 +2195,9 @@
       <c r="F20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2196,7 +2232,7 @@
       <c r="AM20" s="9"/>
       <c r="AN20" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO20" s="9">
         <f t="shared" si="2"/>
@@ -2222,7 +2258,9 @@
       <c r="F21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2261,7 +2299,7 @@
       </c>
       <c r="AO21" s="9">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
@@ -2283,7 +2321,9 @@
       <c r="F22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2318,7 +2358,7 @@
       <c r="AM22" s="9"/>
       <c r="AN22" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO22" s="9">
         <f t="shared" si="2"/>
@@ -2344,7 +2384,9 @@
       <c r="F23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2379,7 +2421,7 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO23" s="9">
         <f t="shared" si="2"/>
@@ -2405,7 +2447,9 @@
       <c r="F24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2440,7 +2484,7 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO24" s="9">
         <f t="shared" si="2"/>
@@ -2466,7 +2510,9 @@
       <c r="F25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2501,7 +2547,7 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO25" s="9">
         <f t="shared" si="2"/>
@@ -2527,7 +2573,9 @@
       <c r="F26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2566,7 +2614,7 @@
       </c>
       <c r="AO26" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.2">
@@ -2588,7 +2636,9 @@
       <c r="F27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2623,7 +2673,7 @@
       <c r="AM27" s="9"/>
       <c r="AN27" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO27" s="9">
         <f t="shared" si="2"/>
@@ -2649,7 +2699,9 @@
       <c r="F28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2684,7 +2736,7 @@
       <c r="AM28" s="9"/>
       <c r="AN28" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO28" s="9">
         <f t="shared" si="2"/>
@@ -2710,7 +2762,9 @@
       <c r="F29" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="9"/>
+      <c r="G29" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2749,7 +2803,7 @@
       </c>
       <c r="AO29" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
@@ -2771,7 +2825,9 @@
       <c r="F30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="9"/>
+      <c r="G30" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2806,7 +2862,7 @@
       <c r="AM30" s="9"/>
       <c r="AN30" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO30" s="9">
         <f t="shared" si="2"/>
@@ -2832,7 +2888,9 @@
       <c r="F31" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2871,7 +2929,7 @@
       </c>
       <c r="AO31" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.2">
@@ -2893,7 +2951,9 @@
       <c r="F32" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="9"/>
+      <c r="G32" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2928,7 +2988,7 @@
       <c r="AM32" s="9"/>
       <c r="AN32" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO32" s="9">
         <f t="shared" si="2"/>
@@ -2954,7 +3014,9 @@
       <c r="F33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="9"/>
+      <c r="G33" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2993,7 +3055,7 @@
       </c>
       <c r="AO33" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.2">
@@ -3015,7 +3077,9 @@
       <c r="F34" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="9"/>
+      <c r="G34" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -3050,7 +3114,7 @@
       <c r="AM34" s="9"/>
       <c r="AN34" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO34" s="9">
         <f t="shared" si="2"/>
@@ -3076,7 +3140,9 @@
       <c r="F35" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="9"/>
+      <c r="G35" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -3111,7 +3177,7 @@
       <c r="AM35" s="9"/>
       <c r="AN35" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO35" s="9">
         <f t="shared" si="2"/>
@@ -3137,7 +3203,9 @@
       <c r="F36" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="9"/>
+      <c r="G36" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -3172,7 +3240,7 @@
       <c r="AM36" s="9"/>
       <c r="AN36" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO36" s="9">
         <f t="shared" si="2"/>
@@ -3198,7 +3266,9 @@
       <c r="F37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="9"/>
+      <c r="G37" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -3233,7 +3303,7 @@
       <c r="AM37" s="9"/>
       <c r="AN37" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO37" s="9">
         <f t="shared" si="2"/>
@@ -3259,7 +3329,9 @@
       <c r="F38" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="9"/>
+      <c r="G38" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -3294,7 +3366,7 @@
       <c r="AM38" s="9"/>
       <c r="AN38" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO38" s="9">
         <f t="shared" si="2"/>
@@ -3320,7 +3392,9 @@
       <c r="F39" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="9"/>
+      <c r="G39" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -3355,7 +3429,7 @@
       <c r="AM39" s="9"/>
       <c r="AN39" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO39" s="9">
         <f t="shared" si="2"/>
@@ -3381,7 +3455,9 @@
       <c r="F40" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="9"/>
+      <c r="G40" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -3420,7 +3496,7 @@
       </c>
       <c r="AO40" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.2">
@@ -3442,7 +3518,9 @@
       <c r="F41" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="9"/>
+      <c r="G41" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -3477,7 +3555,7 @@
       <c r="AM41" s="9"/>
       <c r="AN41" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO41" s="9">
         <f t="shared" si="2"/>
@@ -3503,7 +3581,9 @@
       <c r="F42" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="9"/>
+      <c r="G42" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -3538,7 +3618,7 @@
       <c r="AM42" s="9"/>
       <c r="AN42" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO42" s="9">
         <f t="shared" si="2"/>
@@ -3564,7 +3644,9 @@
       <c r="F43" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="9"/>
+      <c r="G43" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3599,7 +3681,7 @@
       <c r="AM43" s="9"/>
       <c r="AN43" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO43" s="9">
         <f t="shared" si="2"/>
@@ -3625,7 +3707,9 @@
       <c r="F44" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="9"/>
+      <c r="G44" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3660,7 +3744,7 @@
       <c r="AM44" s="9"/>
       <c r="AN44" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO44" s="9">
         <f t="shared" si="2"/>
@@ -3686,7 +3770,9 @@
       <c r="F45" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="9"/>
+      <c r="G45" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3721,7 +3807,7 @@
       <c r="AM45" s="9"/>
       <c r="AN45" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO45" s="9">
         <f t="shared" si="2"/>
@@ -3747,7 +3833,9 @@
       <c r="F46" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="9"/>
+      <c r="G46" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3782,7 +3870,7 @@
       <c r="AM46" s="9"/>
       <c r="AN46" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO46" s="9">
         <f t="shared" si="2"/>
@@ -3808,7 +3896,9 @@
       <c r="F47" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="9"/>
+      <c r="G47" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3843,7 +3933,7 @@
       <c r="AM47" s="9"/>
       <c r="AN47" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO47" s="9">
         <f t="shared" si="2"/>
@@ -3869,7 +3959,9 @@
       <c r="F48" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="9"/>
+      <c r="G48" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3904,7 +3996,7 @@
       <c r="AM48" s="9"/>
       <c r="AN48" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO48" s="9">
         <f t="shared" si="2"/>
@@ -3930,7 +4022,9 @@
       <c r="F49" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="9"/>
+      <c r="G49" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3965,7 +4059,7 @@
       <c r="AM49" s="9"/>
       <c r="AN49" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO49" s="9">
         <f t="shared" si="2"/>
@@ -3991,7 +4085,9 @@
       <c r="F50" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="9"/>
+      <c r="G50" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -4030,7 +4126,7 @@
       </c>
       <c r="AO50" s="9">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.2">
@@ -4052,7 +4148,9 @@
       <c r="F51" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="9"/>
+      <c r="G51" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -4087,7 +4185,7 @@
       <c r="AM51" s="9"/>
       <c r="AN51" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO51" s="9">
         <f t="shared" si="2"/>
@@ -4113,7 +4211,9 @@
       <c r="F52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G52" s="9"/>
+      <c r="G52" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -4148,7 +4248,7 @@
       <c r="AM52" s="9"/>
       <c r="AN52" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO52" s="9">
         <f t="shared" si="2"/>
@@ -4165,6 +4265,9 @@
       <c r="F53" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G53" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A54" s="10" t="s">
@@ -4174,6 +4277,9 @@
         <v>3056</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Frequencia/MAF105_T1.xlsx
+++ b/Frequencia/MAF105_T1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="119">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -856,9 +856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1058,7 +1058,9 @@
       <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -1096,7 +1098,7 @@
       </c>
       <c r="AO2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>9</v>
@@ -1127,7 +1129,9 @@
       <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -1161,7 +1165,7 @@
       <c r="AM3" s="9"/>
       <c r="AN3" s="9">
         <f t="shared" ref="AN3:AN52" si="1">2*COUNTIF(D3:AM3,"="&amp;$AQ$2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO3" s="9">
         <f t="shared" ref="AO3:AO52" si="2">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
@@ -1190,7 +1194,9 @@
       <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -1228,7 +1234,7 @@
       </c>
       <c r="AO4" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
@@ -1253,7 +1259,9 @@
       <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -1287,7 +1295,7 @@
       <c r="AM5" s="9"/>
       <c r="AN5" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="2"/>
@@ -1316,7 +1324,9 @@
       <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -1350,7 +1360,7 @@
       <c r="AM6" s="9"/>
       <c r="AN6" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO6" s="9">
         <f t="shared" si="2"/>
@@ -1379,7 +1389,9 @@
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -1413,7 +1425,7 @@
       <c r="AM7" s="9"/>
       <c r="AN7" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO7" s="9">
         <f t="shared" si="2"/>
@@ -1442,7 +1454,9 @@
       <c r="G8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -1480,7 +1494,7 @@
       </c>
       <c r="AO8" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
@@ -1505,7 +1519,9 @@
       <c r="G9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -1543,7 +1559,7 @@
       </c>
       <c r="AO9" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
@@ -1568,7 +1584,9 @@
       <c r="G10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -1606,7 +1624,7 @@
       </c>
       <c r="AO10" s="9">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
@@ -1631,7 +1649,9 @@
       <c r="G11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -1669,7 +1689,7 @@
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
@@ -1694,7 +1714,9 @@
       <c r="G12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -1728,7 +1750,7 @@
       <c r="AM12" s="9"/>
       <c r="AN12" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="2"/>
@@ -1757,7 +1779,9 @@
       <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -1791,7 +1815,7 @@
       <c r="AM13" s="9"/>
       <c r="AN13" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO13" s="9">
         <f t="shared" si="2"/>
@@ -1820,7 +1844,9 @@
       <c r="G14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -1854,7 +1880,7 @@
       <c r="AM14" s="9"/>
       <c r="AN14" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO14" s="9">
         <f t="shared" si="2"/>
@@ -1883,7 +1909,9 @@
       <c r="G15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -1917,7 +1945,7 @@
       <c r="AM15" s="9"/>
       <c r="AN15" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO15" s="9">
         <f t="shared" si="2"/>
@@ -1946,7 +1974,9 @@
       <c r="G16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -1980,7 +2010,7 @@
       <c r="AM16" s="9"/>
       <c r="AN16" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO16" s="9">
         <f t="shared" si="2"/>
@@ -2009,7 +2039,9 @@
       <c r="G17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -2043,7 +2075,7 @@
       <c r="AM17" s="9"/>
       <c r="AN17" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO17" s="9">
         <f t="shared" si="2"/>
@@ -2072,7 +2104,9 @@
       <c r="G18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -2106,7 +2140,7 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO18" s="9">
         <f t="shared" si="2"/>
@@ -2135,7 +2169,9 @@
       <c r="G19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -2169,7 +2205,7 @@
       <c r="AM19" s="9"/>
       <c r="AN19" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO19" s="9">
         <f t="shared" si="2"/>
@@ -2198,7 +2234,9 @@
       <c r="G20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -2236,7 +2274,7 @@
       </c>
       <c r="AO20" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
@@ -2261,7 +2299,9 @@
       <c r="G21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="9"/>
+      <c r="H21" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -2299,7 +2339,7 @@
       </c>
       <c r="AO21" s="9">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
@@ -2324,7 +2364,9 @@
       <c r="G22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -2358,7 +2400,7 @@
       <c r="AM22" s="9"/>
       <c r="AN22" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO22" s="9">
         <f t="shared" si="2"/>
@@ -2387,7 +2429,9 @@
       <c r="G23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -2421,7 +2465,7 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO23" s="9">
         <f t="shared" si="2"/>
@@ -2450,7 +2494,9 @@
       <c r="G24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -2484,7 +2530,7 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO24" s="9">
         <f t="shared" si="2"/>
@@ -2513,7 +2559,9 @@
       <c r="G25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="9"/>
+      <c r="H25" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -2547,7 +2595,7 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO25" s="9">
         <f t="shared" si="2"/>
@@ -2576,7 +2624,9 @@
       <c r="G26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -2614,7 +2664,7 @@
       </c>
       <c r="AO26" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.2">
@@ -2639,7 +2689,9 @@
       <c r="G27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -2673,7 +2725,7 @@
       <c r="AM27" s="9"/>
       <c r="AN27" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO27" s="9">
         <f t="shared" si="2"/>
@@ -2702,7 +2754,9 @@
       <c r="G28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -2740,7 +2794,7 @@
       </c>
       <c r="AO28" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.2">
@@ -2765,7 +2819,9 @@
       <c r="G29" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -2803,7 +2859,7 @@
       </c>
       <c r="AO29" s="9">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
@@ -2828,7 +2884,9 @@
       <c r="G30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -2866,7 +2924,7 @@
       </c>
       <c r="AO30" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.2">
@@ -2891,7 +2949,9 @@
       <c r="G31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -2925,7 +2985,7 @@
       <c r="AM31" s="9"/>
       <c r="AN31" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO31" s="9">
         <f t="shared" si="2"/>
@@ -2954,7 +3014,9 @@
       <c r="G32" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -2988,7 +3050,7 @@
       <c r="AM32" s="9"/>
       <c r="AN32" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO32" s="9">
         <f t="shared" si="2"/>
@@ -3017,7 +3079,9 @@
       <c r="G33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -3051,7 +3115,7 @@
       <c r="AM33" s="9"/>
       <c r="AN33" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO33" s="9">
         <f t="shared" si="2"/>
@@ -3080,7 +3144,9 @@
       <c r="G34" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -3114,7 +3180,7 @@
       <c r="AM34" s="9"/>
       <c r="AN34" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO34" s="9">
         <f t="shared" si="2"/>
@@ -3143,7 +3209,9 @@
       <c r="G35" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -3177,7 +3245,7 @@
       <c r="AM35" s="9"/>
       <c r="AN35" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO35" s="9">
         <f t="shared" si="2"/>
@@ -3206,7 +3274,9 @@
       <c r="G36" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -3240,7 +3310,7 @@
       <c r="AM36" s="9"/>
       <c r="AN36" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO36" s="9">
         <f t="shared" si="2"/>
@@ -3269,7 +3339,9 @@
       <c r="G37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -3303,7 +3375,7 @@
       <c r="AM37" s="9"/>
       <c r="AN37" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO37" s="9">
         <f t="shared" si="2"/>
@@ -3332,7 +3404,9 @@
       <c r="G38" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="9"/>
+      <c r="H38" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -3366,7 +3440,7 @@
       <c r="AM38" s="9"/>
       <c r="AN38" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO38" s="9">
         <f t="shared" si="2"/>
@@ -3395,7 +3469,9 @@
       <c r="G39" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -3429,7 +3505,7 @@
       <c r="AM39" s="9"/>
       <c r="AN39" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO39" s="9">
         <f t="shared" si="2"/>
@@ -3458,7 +3534,9 @@
       <c r="G40" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -3492,7 +3570,7 @@
       <c r="AM40" s="9"/>
       <c r="AN40" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO40" s="9">
         <f t="shared" si="2"/>
@@ -3521,7 +3599,9 @@
       <c r="G41" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="9"/>
+      <c r="H41" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -3559,7 +3639,7 @@
       </c>
       <c r="AO41" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.2">
@@ -3584,7 +3664,9 @@
       <c r="G42" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H42" s="9"/>
+      <c r="H42" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -3618,7 +3700,7 @@
       <c r="AM42" s="9"/>
       <c r="AN42" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO42" s="9">
         <f t="shared" si="2"/>
@@ -3647,7 +3729,9 @@
       <c r="G43" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="9"/>
+      <c r="H43" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -3681,7 +3765,7 @@
       <c r="AM43" s="9"/>
       <c r="AN43" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO43" s="9">
         <f t="shared" si="2"/>
@@ -3710,7 +3794,9 @@
       <c r="G44" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="9"/>
+      <c r="H44" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -3744,7 +3830,7 @@
       <c r="AM44" s="9"/>
       <c r="AN44" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO44" s="9">
         <f t="shared" si="2"/>
@@ -3773,7 +3859,9 @@
       <c r="G45" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="9"/>
+      <c r="H45" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -3807,7 +3895,7 @@
       <c r="AM45" s="9"/>
       <c r="AN45" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO45" s="9">
         <f t="shared" si="2"/>
@@ -3836,7 +3924,9 @@
       <c r="G46" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="9"/>
+      <c r="H46" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -3870,7 +3960,7 @@
       <c r="AM46" s="9"/>
       <c r="AN46" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO46" s="9">
         <f t="shared" si="2"/>
@@ -3899,7 +3989,9 @@
       <c r="G47" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -3933,7 +4025,7 @@
       <c r="AM47" s="9"/>
       <c r="AN47" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO47" s="9">
         <f t="shared" si="2"/>
@@ -3962,7 +4054,9 @@
       <c r="G48" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="9"/>
+      <c r="H48" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -3996,7 +4090,7 @@
       <c r="AM48" s="9"/>
       <c r="AN48" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO48" s="9">
         <f t="shared" si="2"/>
@@ -4025,7 +4119,9 @@
       <c r="G49" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H49" s="9"/>
+      <c r="H49" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -4059,7 +4155,7 @@
       <c r="AM49" s="9"/>
       <c r="AN49" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO49" s="9">
         <f t="shared" si="2"/>
@@ -4088,7 +4184,9 @@
       <c r="G50" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="9"/>
+      <c r="H50" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -4126,7 +4224,7 @@
       </c>
       <c r="AO50" s="9">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.2">
@@ -4151,7 +4249,9 @@
       <c r="G51" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="9"/>
+      <c r="H51" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -4185,7 +4285,7 @@
       <c r="AM51" s="9"/>
       <c r="AN51" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO51" s="9">
         <f t="shared" si="2"/>
@@ -4214,7 +4314,9 @@
       <c r="G52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="9"/>
+      <c r="H52" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -4252,7 +4354,7 @@
       </c>
       <c r="AO52" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.4">
@@ -4268,6 +4370,9 @@
       <c r="G53" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H53" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A54" s="10" t="s">
@@ -4280,6 +4385,9 @@
         <v>9</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>9</v>
       </c>
     </row>
